--- a/reports/Monthly_Report_Production_2026_01.xlsx
+++ b/reports/Monthly_Report_Production_2026_01.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2026-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -34,223 +34,223 @@
     <t>Kit-E Production (MWh)</t>
   </si>
   <si>
-    <t>Prod Surplus (MWh)</t>
+    <t>Prod Grid Losses (MWh)</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>Altamura</t>
+  </si>
+  <si>
+    <t>Aquila</t>
+  </si>
+  <si>
+    <t>Aquila 1</t>
   </si>
   <si>
     <t>Bari</t>
   </si>
   <si>
+    <t>Borgonovo</t>
+  </si>
+  <si>
     <t>Circello 1</t>
   </si>
   <si>
+    <t>Circello 2</t>
+  </si>
+  <si>
+    <t>Curbici</t>
+  </si>
+  <si>
+    <t>Cutrofiano</t>
+  </si>
+  <si>
     <t>E9</t>
   </si>
   <si>
+    <t>Energheia</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>FAP</t>
+  </si>
+  <si>
+    <t>Ferrante</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
     <t>Gaglianico</t>
   </si>
   <si>
+    <t>Galatina 1</t>
+  </si>
+  <si>
+    <t>Galatina 83</t>
+  </si>
+  <si>
+    <t>Galatina De Matteis</t>
+  </si>
+  <si>
+    <t>Ginosa</t>
+  </si>
+  <si>
+    <t>Interporto C1</t>
+  </si>
+  <si>
+    <t>Interporto C2</t>
+  </si>
+  <si>
+    <t>Interporto C3</t>
+  </si>
+  <si>
+    <t>Interporto C4</t>
+  </si>
+  <si>
+    <t>Interporto C5</t>
+  </si>
+  <si>
+    <t>Isola Sud</t>
+  </si>
+  <si>
+    <t>Kaggio</t>
+  </si>
+  <si>
+    <t>Kaggio 1</t>
+  </si>
+  <si>
+    <t>LE-012</t>
+  </si>
+  <si>
+    <t>LE-031</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Lombardi</t>
+  </si>
+  <si>
     <t>Marcianise</t>
   </si>
   <si>
+    <t>Matino A</t>
+  </si>
+  <si>
+    <t>Matino B</t>
+  </si>
+  <si>
+    <t>Matino C</t>
+  </si>
+  <si>
+    <t>Matino D</t>
+  </si>
+  <si>
     <t>Matino E</t>
   </si>
   <si>
+    <t>Matino F</t>
+  </si>
+  <si>
     <t>Melzo</t>
   </si>
   <si>
+    <t>Nogara</t>
+  </si>
+  <si>
+    <t>Novellini 1</t>
+  </si>
+  <si>
+    <t>Novellini 2</t>
+  </si>
+  <si>
+    <t>Oricola</t>
+  </si>
+  <si>
+    <t>Ospedaletto</t>
+  </si>
+  <si>
+    <t>P.S.Elia</t>
+  </si>
+  <si>
+    <t>Roffia Nord</t>
+  </si>
+  <si>
     <t>Rofilo</t>
   </si>
   <si>
+    <t>Rovigo</t>
+  </si>
+  <si>
+    <t>Sabaudia</t>
+  </si>
+  <si>
+    <t>Santamaria</t>
+  </si>
+  <si>
+    <t>Serrotti Est</t>
+  </si>
+  <si>
+    <t>Spongano</t>
+  </si>
+  <si>
+    <t>Stomeo</t>
+  </si>
+  <si>
+    <t>Stornara</t>
+  </si>
+  <si>
     <t>Stornarella</t>
   </si>
   <si>
     <t>Surbo</t>
   </si>
   <si>
-    <t>Aquila</t>
-  </si>
-  <si>
-    <t>Aquila 1</t>
-  </si>
-  <si>
-    <t>Borgonovo</t>
-  </si>
-  <si>
-    <t>Curbici</t>
-  </si>
-  <si>
-    <t>Energheia</t>
-  </si>
-  <si>
-    <t>Ferrante</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>Galatina 83</t>
-  </si>
-  <si>
-    <t>Galatina De Matteis</t>
-  </si>
-  <si>
-    <t>Interporto C5</t>
-  </si>
-  <si>
-    <t>Isola Sud</t>
-  </si>
-  <si>
-    <t>Kaggio</t>
-  </si>
-  <si>
-    <t>Kaggio 1</t>
-  </si>
-  <si>
-    <t>Matino D</t>
-  </si>
-  <si>
-    <t>Matino F</t>
-  </si>
-  <si>
-    <t>Novellini 2</t>
-  </si>
-  <si>
-    <t>Ospedaletto</t>
-  </si>
-  <si>
-    <t>Sabaudia</t>
-  </si>
-  <si>
-    <t>Santamaria</t>
+    <t>Uta</t>
   </si>
   <si>
     <t>Vibo</t>
   </si>
   <si>
+    <t>Villacidro 1</t>
+  </si>
+  <si>
     <t>Villacidro 2</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>Circello 2</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>FAP</t>
-  </si>
-  <si>
-    <t>Ginosa</t>
-  </si>
-  <si>
-    <t>LE-012</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Nogara</t>
-  </si>
-  <si>
-    <t>Oricola</t>
-  </si>
-  <si>
-    <t>Roffia Nord</t>
-  </si>
-  <si>
-    <t>Rovigo</t>
-  </si>
-  <si>
-    <t>Stomeo</t>
-  </si>
-  <si>
-    <t>Uta</t>
-  </si>
-  <si>
-    <t>Altamura</t>
-  </si>
-  <si>
-    <t>Cutrofiano</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>Galatina 1</t>
-  </si>
-  <si>
-    <t>Interporto C1</t>
-  </si>
-  <si>
-    <t>Interporto C2</t>
-  </si>
-  <si>
-    <t>Interporto C3</t>
-  </si>
-  <si>
-    <t>Interporto C4</t>
-  </si>
-  <si>
-    <t>LE-031</t>
-  </si>
-  <si>
-    <t>Lombardi</t>
-  </si>
-  <si>
-    <t>Matino A</t>
-  </si>
-  <si>
-    <t>Matino B</t>
-  </si>
-  <si>
-    <t>Matino C</t>
-  </si>
-  <si>
-    <t>Novellini 1</t>
-  </si>
-  <si>
-    <t>P.S.Elia</t>
-  </si>
-  <si>
-    <t>Serrotti Est</t>
-  </si>
-  <si>
-    <t>Spongano</t>
-  </si>
-  <si>
-    <t>Stornara</t>
-  </si>
-  <si>
-    <t>Villacidro 1</t>
-  </si>
-  <si>
     <t>Inxieme</t>
   </si>
   <si>
     <t>A2A</t>
   </si>
   <si>
+    <t>IT-CNOR</t>
+  </si>
+  <si>
     <t>IT-SUD</t>
   </si>
   <si>
+    <t>IT-SICI</t>
+  </si>
+  <si>
+    <t>IT-NORD</t>
+  </si>
+  <si>
     <t>IT-CSUD</t>
   </si>
   <si>
-    <t>IT-CNOR</t>
-  </si>
-  <si>
-    <t>IT-NORD</t>
-  </si>
-  <si>
-    <t>IT-SICI</t>
+    <t>IT-SARD</t>
   </si>
   <si>
     <t>IT-CALA</t>
-  </si>
-  <si>
-    <t>IT-SARD</t>
   </si>
 </sst>
 </file>
@@ -654,10 +654,10 @@
         <v>72</v>
       </c>
       <c r="F2">
-        <v>28.4</v>
+        <v>19.09</v>
       </c>
       <c r="G2">
-        <v>29.06</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -671,16 +671,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>73</v>
       </c>
       <c r="F3">
-        <v>79.75</v>
+        <v>49.27</v>
       </c>
       <c r="G3">
-        <v>81.59</v>
+        <v>50.41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -694,16 +694,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
       </c>
       <c r="F4">
-        <v>33.82</v>
+        <v>30.63</v>
       </c>
       <c r="G4">
-        <v>34.6</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -720,13 +720,13 @@
         <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5">
-        <v>15.41</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="G5">
-        <v>15.76</v>
+        <v>83.05</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -746,10 +746,10 @@
         <v>73</v>
       </c>
       <c r="F6">
-        <v>5.95</v>
+        <v>30.66</v>
       </c>
       <c r="G6">
-        <v>6.09</v>
+        <v>31.37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -766,13 +766,13 @@
         <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F7">
-        <v>44.95</v>
+        <v>24.41</v>
       </c>
       <c r="G7">
-        <v>45.98</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -789,13 +789,13 @@
         <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8">
-        <v>18.5</v>
+        <v>88.36</v>
       </c>
       <c r="G8">
-        <v>18.93</v>
+        <v>90.39</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -812,13 +812,13 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9">
-        <v>40.28</v>
+        <v>61.01</v>
       </c>
       <c r="G9">
-        <v>41.2</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -832,16 +832,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10">
-        <v>10.25</v>
+        <v>119.7</v>
       </c>
       <c r="G10">
-        <v>10.49</v>
+        <v>122.45</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -858,13 +858,13 @@
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>53.12</v>
+        <v>66.23</v>
       </c>
       <c r="G11">
-        <v>54.34</v>
+        <v>67.75</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -878,16 +878,16 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F12">
-        <v>30.51</v>
+        <v>37.08</v>
       </c>
       <c r="G12">
-        <v>31.21</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -904,13 +904,13 @@
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F13">
-        <v>75.33</v>
+        <v>43.03</v>
       </c>
       <c r="G13">
-        <v>77.06</v>
+        <v>44.02</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -927,13 +927,13 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F14">
-        <v>23.43</v>
+        <v>25.79</v>
       </c>
       <c r="G14">
-        <v>23.97</v>
+        <v>26.39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -950,13 +950,13 @@
         <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F15">
-        <v>112.95</v>
+        <v>26.62</v>
       </c>
       <c r="G15">
-        <v>115.55</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -973,13 +973,13 @@
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16">
-        <v>39.57</v>
+        <v>44.3</v>
       </c>
       <c r="G16">
-        <v>40.49</v>
+        <v>45.32</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -996,13 +996,13 @@
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17">
-        <v>288.33</v>
+        <v>307.89</v>
       </c>
       <c r="G17">
-        <v>294.96</v>
+        <v>314.97</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1019,13 +1019,13 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18">
-        <v>32.89</v>
+        <v>35.82</v>
       </c>
       <c r="G18">
-        <v>33.65</v>
+        <v>36.65</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1039,16 +1039,16 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F19">
-        <v>85.70999999999999</v>
+        <v>16.06</v>
       </c>
       <c r="G19">
-        <v>87.68000000000001</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1062,16 +1062,16 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20">
-        <v>51.9</v>
+        <v>60.91</v>
       </c>
       <c r="G20">
-        <v>53.1</v>
+        <v>62.31</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1085,16 +1085,16 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21">
-        <v>119.25</v>
+        <v>90.8</v>
       </c>
       <c r="G21">
-        <v>122</v>
+        <v>92.89</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1108,16 +1108,16 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22">
-        <v>37.72</v>
+        <v>55.88</v>
       </c>
       <c r="G22">
-        <v>38.59</v>
+        <v>57.17</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1134,13 +1134,13 @@
         <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F23">
-        <v>181.89</v>
+        <v>75.63</v>
       </c>
       <c r="G23">
-        <v>186.08</v>
+        <v>77.37</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1154,16 +1154,16 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24">
-        <v>122.62</v>
+        <v>53.78</v>
       </c>
       <c r="G24">
-        <v>125.44</v>
+        <v>55.01</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1177,16 +1177,16 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F25">
-        <v>45.68</v>
+        <v>182.33</v>
       </c>
       <c r="G25">
-        <v>46.73</v>
+        <v>186.52</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1203,13 +1203,13 @@
         <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F26">
-        <v>23.55</v>
+        <v>43.38</v>
       </c>
       <c r="G26">
-        <v>24.09</v>
+        <v>44.38</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1229,10 +1229,10 @@
         <v>75</v>
       </c>
       <c r="F27">
-        <v>15.4</v>
+        <v>26.6</v>
       </c>
       <c r="G27">
-        <v>15.76</v>
+        <v>27.21</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1252,10 +1252,10 @@
         <v>75</v>
       </c>
       <c r="F28">
-        <v>19.31</v>
+        <v>128.07</v>
       </c>
       <c r="G28">
-        <v>19.75</v>
+        <v>131.02</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1269,16 +1269,16 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29">
-        <v>330.65</v>
+        <v>39.81</v>
       </c>
       <c r="G29">
-        <v>338.26</v>
+        <v>40.73</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1292,16 +1292,16 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F30">
-        <v>41.51</v>
+        <v>192.69</v>
       </c>
       <c r="G30">
-        <v>42.46</v>
+        <v>197.12</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1318,13 +1318,13 @@
         <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F31">
-        <v>76.64</v>
+        <v>129.89</v>
       </c>
       <c r="G31">
-        <v>78.40000000000001</v>
+        <v>132.88</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1341,13 +1341,13 @@
         <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F32">
-        <v>43.42</v>
+        <v>58.83</v>
       </c>
       <c r="G32">
-        <v>44.42</v>
+        <v>60.19</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1364,13 +1364,13 @@
         <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33">
-        <v>19.09</v>
+        <v>51.52</v>
       </c>
       <c r="G33">
-        <v>19.53</v>
+        <v>52.71</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1384,16 +1384,16 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34">
-        <v>55.78</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="G34">
-        <v>57.06</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1410,13 +1410,13 @@
         <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35">
-        <v>23.3</v>
+        <v>41.91</v>
       </c>
       <c r="G35">
-        <v>23.84</v>
+        <v>42.87</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1433,13 +1433,13 @@
         <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F36">
-        <v>41.21</v>
+        <v>5.95</v>
       </c>
       <c r="G36">
-        <v>42.16</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1453,16 +1453,16 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F37">
-        <v>70.31999999999999</v>
+        <v>19.13</v>
       </c>
       <c r="G37">
-        <v>71.94</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1479,13 +1479,13 @@
         <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38">
-        <v>54.49</v>
+        <v>19.79</v>
       </c>
       <c r="G38">
-        <v>55.75</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1499,16 +1499,16 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F39">
-        <v>66.87</v>
+        <v>16.35</v>
       </c>
       <c r="G39">
-        <v>68.41</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1525,13 +1525,13 @@
         <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40">
-        <v>18.4</v>
+        <v>48.31</v>
       </c>
       <c r="G40">
-        <v>18.83</v>
+        <v>49.42</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1551,10 +1551,10 @@
         <v>73</v>
       </c>
       <c r="F41">
-        <v>15.41</v>
+        <v>44.95</v>
       </c>
       <c r="G41">
-        <v>15.77</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1568,16 +1568,16 @@
         <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F42">
-        <v>43.43</v>
+        <v>23.55</v>
       </c>
       <c r="G42">
-        <v>44.43</v>
+        <v>24.09</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1597,10 +1597,10 @@
         <v>75</v>
       </c>
       <c r="F43">
-        <v>157.67</v>
+        <v>19.23</v>
       </c>
       <c r="G43">
-        <v>161.3</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1617,13 +1617,13 @@
         <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F44">
-        <v>54.78</v>
+        <v>19.71</v>
       </c>
       <c r="G44">
-        <v>56.04</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1640,13 +1640,13 @@
         <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F45">
-        <v>50.98</v>
+        <v>15.82</v>
       </c>
       <c r="G45">
-        <v>52.15</v>
+        <v>16.19</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1660,16 +1660,16 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F46">
-        <v>45.68</v>
+        <v>16.61</v>
       </c>
       <c r="G46">
-        <v>46.73</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1683,16 +1683,16 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F47">
-        <v>63.04</v>
+        <v>16.79</v>
       </c>
       <c r="G47">
-        <v>64.48999999999999</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1706,16 +1706,16 @@
         <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48">
-        <v>24.37</v>
+        <v>20.22</v>
       </c>
       <c r="G48">
-        <v>24.93</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1729,16 +1729,16 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F49">
-        <v>57.34</v>
+        <v>90.91</v>
       </c>
       <c r="G49">
-        <v>58.66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1752,16 +1752,16 @@
         <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F50">
-        <v>50.2</v>
+        <v>45.83</v>
       </c>
       <c r="G50">
-        <v>51.36</v>
+        <v>46.89</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1775,16 +1775,16 @@
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F51">
-        <v>170.71</v>
+        <v>43.65</v>
       </c>
       <c r="G51">
-        <v>174.64</v>
+        <v>44.65</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1804,10 +1804,10 @@
         <v>75</v>
       </c>
       <c r="F52">
-        <v>40.58</v>
+        <v>174.42</v>
       </c>
       <c r="G52">
-        <v>41.51</v>
+        <v>178.43</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1824,13 +1824,13 @@
         <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53">
-        <v>24.87</v>
+        <v>362.56</v>
       </c>
       <c r="G53">
-        <v>25.44</v>
+        <v>370.89</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1847,13 +1847,13 @@
         <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54">
-        <v>47.71</v>
+        <v>44.94</v>
       </c>
       <c r="G54">
-        <v>48.81</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1873,10 +1873,10 @@
         <v>72</v>
       </c>
       <c r="F55">
-        <v>39.19</v>
+        <v>32.67</v>
       </c>
       <c r="G55">
-        <v>40.09</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1893,13 +1893,13 @@
         <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F56">
-        <v>18.11</v>
+        <v>47.7</v>
       </c>
       <c r="G56">
-        <v>18.52</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1916,13 +1916,13 @@
         <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F57">
-        <v>18.65</v>
+        <v>58.92</v>
       </c>
       <c r="G57">
-        <v>19.07</v>
+        <v>60.28</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1939,13 +1939,13 @@
         <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F58">
-        <v>15.43</v>
+        <v>45.95</v>
       </c>
       <c r="G58">
-        <v>15.78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1962,13 +1962,13 @@
         <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59">
-        <v>14.72</v>
+        <v>10.25</v>
       </c>
       <c r="G59">
-        <v>15.06</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1982,16 +1982,16 @@
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
         <v>73</v>
       </c>
       <c r="F60">
-        <v>85.12</v>
+        <v>57.21</v>
       </c>
       <c r="G60">
-        <v>87.08</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2008,13 +2008,13 @@
         <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F61">
-        <v>30.92</v>
+        <v>53.18</v>
       </c>
       <c r="G61">
-        <v>31.63</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2028,16 +2028,16 @@
         <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F62">
-        <v>44.02</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="G62">
-        <v>45.03</v>
+        <v>81.17</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2054,13 +2054,13 @@
         <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F63">
-        <v>42.21</v>
+        <v>41.29</v>
       </c>
       <c r="G63">
-        <v>43.18</v>
+        <v>42.24</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2077,13 +2077,13 @@
         <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F64">
-        <v>39.47</v>
+        <v>45.47</v>
       </c>
       <c r="G64">
-        <v>40.38</v>
+        <v>46.51</v>
       </c>
     </row>
   </sheetData>
